--- a/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
+++ b/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.商户评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13.统计查询（各种报表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +375,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.商户评价系数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,13 +445,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,7 +750,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -760,540 +760,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="D78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1"/>
-      <c r="B69" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1"/>
-      <c r="B70" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1"/>
-      <c r="B71" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1"/>
-      <c r="B72" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1"/>
-      <c r="B73" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1"/>
-      <c r="B75" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1"/>
-      <c r="B76" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1"/>
-      <c r="B77" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="1"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="1"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A78:A84"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
+++ b/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -230,18 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)修改品牌信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)删除品牌信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)导出品牌信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)查询品牌信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5)品牌信息的期限提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.财务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +363,22 @@
   </si>
   <si>
     <t>12.商户评价系数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)修改品牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)删除品牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)导出品牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)品牌信息的期限提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -868,7 +868,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -967,7 +967,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -1044,12 +1044,12 @@
     <row r="46" spans="1:2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>48</v>
@@ -1081,177 +1081,177 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3"/>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3"/>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3"/>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78" s="2"/>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1280,6 +1280,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A63:A67"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A10"/>
@@ -1289,11 +1294,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
+++ b/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>九州国际 - 市场管理系统 - 功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,22 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)查询商户评价标准(各项评分标注及权重)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)添加评分类、评分项标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)修改评分类、评分项标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)删除评分类、评分项标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.销售管理（统一收银）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +363,34 @@
   </si>
   <si>
     <t>6)品牌信息的期限提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)查询商户评分模块、具体评价标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)添加评分模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)修改评分模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)添加具体评分标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)修改具体评分标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)删除评分模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)删除具体评分标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B74:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -868,7 +880,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1044,7 +1056,7 @@
     <row r="46" spans="1:2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1096,25 +1108,25 @@
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1151,37 +1163,37 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3"/>
       <c r="B66" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
@@ -1189,102 +1201,115 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:2">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:2">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3"/>
       <c r="B76" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3"/>
       <c r="B77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="D78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3"/>
       <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:4">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:4">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
     </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A63:A67"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A10"/>
@@ -1294,6 +1319,11 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
+++ b/01.requirement/功能列表/九州国际 - 市场管理系统 - 功能列表.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B74:B80"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1310,6 +1310,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A63:A67"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A10"/>
@@ -1319,11 +1324,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
